--- a/05-ScenceManager/tile/lastmap.xlsx
+++ b/05-ScenceManager/tile/lastmap.xlsx
@@ -8,23 +8,165 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\nhapmongame\05-ScenceManager\tile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7336491-7CFA-4AE2-9BB8-D287A935BFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E04228F9-98BA-4EF0-95EA-31DDDD97BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lastmap" sheetId="1" r:id="rId1"/>
-    <sheet name="Gạch 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Portal" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Gạch 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Portal" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+  <si>
+    <t>368,272</t>
+  </si>
+  <si>
+    <t>384,272</t>
+  </si>
+  <si>
+    <t>368,256</t>
+  </si>
+  <si>
+    <t>384,256</t>
+  </si>
+  <si>
+    <t>368,240</t>
+  </si>
+  <si>
+    <t>384,240</t>
+  </si>
+  <si>
+    <t>368,224</t>
+  </si>
+  <si>
+    <t>384,224</t>
+  </si>
+  <si>
+    <t>368,208</t>
+  </si>
+  <si>
+    <t>384,208</t>
+  </si>
+  <si>
+    <t>368,192</t>
+  </si>
+  <si>
+    <t>384,192</t>
+  </si>
+  <si>
+    <t>368,176</t>
+  </si>
+  <si>
+    <t>384,176</t>
+  </si>
   <si>
     <t>Pos Jason</t>
+  </si>
+  <si>
+    <t>384,784</t>
+  </si>
+  <si>
+    <t>384,768</t>
+  </si>
+  <si>
+    <t>384,752</t>
+  </si>
+  <si>
+    <t>384,736</t>
+  </si>
+  <si>
+    <t>384,720</t>
+  </si>
+  <si>
+    <t>128,272</t>
+  </si>
+  <si>
+    <t>128,256</t>
+  </si>
+  <si>
+    <t>128,240</t>
+  </si>
+  <si>
+    <t>128,224</t>
+  </si>
+  <si>
+    <t>128,208</t>
+  </si>
+  <si>
+    <t>128,192</t>
+  </si>
+  <si>
+    <t>128,176</t>
+  </si>
+  <si>
+    <t>112,1952</t>
+  </si>
+  <si>
+    <t>112,1936</t>
+  </si>
+  <si>
+    <t>112,1920</t>
+  </si>
+  <si>
+    <t>128,1952</t>
+  </si>
+  <si>
+    <t>128,1936</t>
+  </si>
+  <si>
+    <t>128,1920</t>
+  </si>
+  <si>
+    <t>368,784</t>
+  </si>
+  <si>
+    <t>368,768</t>
+  </si>
+  <si>
+    <t>368,752</t>
+  </si>
+  <si>
+    <t>368,736</t>
+  </si>
+  <si>
+    <t>368,720</t>
+  </si>
+  <si>
+    <t>112,272</t>
+  </si>
+  <si>
+    <t>112,256</t>
+  </si>
+  <si>
+    <t>112,240</t>
+  </si>
+  <si>
+    <t>112,224</t>
+  </si>
+  <si>
+    <t>112,208</t>
+  </si>
+  <si>
+    <t>112,192</t>
+  </si>
+  <si>
+    <t>112,176</t>
+  </si>
+  <si>
+    <t>96,1952</t>
+  </si>
+  <si>
+    <t>96,1936</t>
+  </si>
+  <si>
+    <t>96,1920</t>
   </si>
 </sst>
 </file>
@@ -867,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AQ48" sqref="AQ48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,123 +1024,123 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <f t="shared" ref="E1:AH1" si="0">D1+1</f>
+        <f>D1+1</f>
         <v>2</v>
       </c>
       <c r="F1">
-        <f t="shared" si="0"/>
+        <f>E1+1</f>
         <v>3</v>
       </c>
       <c r="G1">
-        <f t="shared" si="0"/>
+        <f>F1+1</f>
         <v>4</v>
       </c>
       <c r="H1">
-        <f t="shared" si="0"/>
+        <f>G1+1</f>
         <v>5</v>
       </c>
       <c r="I1">
-        <f t="shared" si="0"/>
+        <f>H1+1</f>
         <v>6</v>
       </c>
       <c r="J1">
-        <f t="shared" si="0"/>
+        <f>I1+1</f>
         <v>7</v>
       </c>
       <c r="K1">
-        <f t="shared" si="0"/>
+        <f>J1+1</f>
         <v>8</v>
       </c>
       <c r="L1">
-        <f t="shared" si="0"/>
+        <f>K1+1</f>
         <v>9</v>
       </c>
       <c r="M1">
-        <f t="shared" si="0"/>
+        <f>L1+1</f>
         <v>10</v>
       </c>
       <c r="N1">
-        <f t="shared" si="0"/>
+        <f>M1+1</f>
         <v>11</v>
       </c>
       <c r="O1">
-        <f t="shared" si="0"/>
+        <f>N1+1</f>
         <v>12</v>
       </c>
       <c r="P1">
-        <f t="shared" si="0"/>
+        <f>O1+1</f>
         <v>13</v>
       </c>
       <c r="Q1">
-        <f t="shared" si="0"/>
+        <f>P1+1</f>
         <v>14</v>
       </c>
       <c r="R1">
-        <f t="shared" si="0"/>
+        <f>Q1+1</f>
         <v>15</v>
       </c>
       <c r="S1">
-        <f t="shared" si="0"/>
+        <f>R1+1</f>
         <v>16</v>
       </c>
       <c r="T1">
-        <f t="shared" si="0"/>
+        <f>S1+1</f>
         <v>17</v>
       </c>
       <c r="U1">
-        <f t="shared" si="0"/>
+        <f>T1+1</f>
         <v>18</v>
       </c>
       <c r="V1">
-        <f t="shared" si="0"/>
+        <f>U1+1</f>
         <v>19</v>
       </c>
       <c r="W1">
-        <f t="shared" si="0"/>
+        <f>V1+1</f>
         <v>20</v>
       </c>
       <c r="X1">
-        <f t="shared" si="0"/>
+        <f>W1+1</f>
         <v>21</v>
       </c>
       <c r="Y1">
-        <f t="shared" si="0"/>
+        <f>X1+1</f>
         <v>22</v>
       </c>
       <c r="Z1">
-        <f t="shared" si="0"/>
+        <f>Y1+1</f>
         <v>23</v>
       </c>
       <c r="AA1">
-        <f t="shared" si="0"/>
+        <f>Z1+1</f>
         <v>24</v>
       </c>
       <c r="AB1">
-        <f t="shared" si="0"/>
+        <f>AA1+1</f>
         <v>25</v>
       </c>
       <c r="AC1">
-        <f t="shared" si="0"/>
+        <f>AB1+1</f>
         <v>26</v>
       </c>
       <c r="AD1">
-        <f t="shared" si="0"/>
+        <f>AC1+1</f>
         <v>27</v>
       </c>
       <c r="AE1">
-        <f t="shared" si="0"/>
+        <f>AD1+1</f>
         <v>28</v>
       </c>
       <c r="AF1">
-        <f t="shared" si="0"/>
+        <f>AE1+1</f>
         <v>29</v>
       </c>
       <c r="AG1">
-        <f t="shared" si="0"/>
+        <f>AF1+1</f>
         <v>30</v>
       </c>
       <c r="AH1">
-        <f t="shared" si="0"/>
+        <f>AG1+1</f>
         <v>31</v>
       </c>
     </row>
@@ -2696,7 +2838,7 @@
     </row>
     <row r="66" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B66">
-        <f t="shared" ref="B66:B125" si="1">B67+1</f>
+        <f>B67+1</f>
         <v>61</v>
       </c>
       <c r="C66" t="str">
@@ -2770,7 +2912,7 @@
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f>B68+1</f>
         <v>60</v>
       </c>
       <c r="C67" t="str">
@@ -2859,7 +3001,7 @@
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f>B69+1</f>
         <v>59</v>
       </c>
       <c r="C68" t="str">
@@ -2936,7 +3078,7 @@
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f>B70+1</f>
         <v>58</v>
       </c>
       <c r="C69" t="str">
@@ -3013,7 +3155,7 @@
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f>B71+1</f>
         <v>57</v>
       </c>
       <c r="C70" t="str">
@@ -3090,7 +3232,7 @@
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f>B72+1</f>
         <v>56</v>
       </c>
       <c r="C71" t="str">
@@ -3167,7 +3309,7 @@
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f>B73+1</f>
         <v>55</v>
       </c>
       <c r="C72" t="str">
@@ -3208,7 +3350,7 @@
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f>B74+1</f>
         <v>54</v>
       </c>
       <c r="C73" t="str">
@@ -3249,7 +3391,7 @@
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f>B75+1</f>
         <v>53</v>
       </c>
       <c r="C74" t="str">
@@ -3290,7 +3432,7 @@
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f>B76+1</f>
         <v>52</v>
       </c>
       <c r="C75" t="str">
@@ -3331,7 +3473,7 @@
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f>B77+1</f>
         <v>51</v>
       </c>
       <c r="C76" t="str">
@@ -3372,7 +3514,7 @@
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f>B78+1</f>
         <v>50</v>
       </c>
       <c r="C77" t="str">
@@ -3413,7 +3555,7 @@
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f>B79+1</f>
         <v>49</v>
       </c>
       <c r="C78" t="str">
@@ -3454,7 +3596,7 @@
     </row>
     <row r="79" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f>B80+1</f>
         <v>48</v>
       </c>
       <c r="C79" t="str">
@@ -3495,7 +3637,7 @@
     </row>
     <row r="80" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f>B81+1</f>
         <v>47</v>
       </c>
       <c r="C80" t="str">
@@ -3536,7 +3678,7 @@
     </row>
     <row r="81" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f>B82+1</f>
         <v>46</v>
       </c>
       <c r="C81" t="str">
@@ -3577,7 +3719,7 @@
     </row>
     <row r="82" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f>B83+1</f>
         <v>45</v>
       </c>
       <c r="C82" t="str">
@@ -3618,7 +3760,7 @@
     </row>
     <row r="83" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f>B84+1</f>
         <v>44</v>
       </c>
       <c r="C83" t="str">
@@ -3659,7 +3801,7 @@
     </row>
     <row r="84" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f>B85+1</f>
         <v>43</v>
       </c>
       <c r="C84" t="str">
@@ -3700,7 +3842,7 @@
     </row>
     <row r="85" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f>B86+1</f>
         <v>42</v>
       </c>
       <c r="C85" t="str">
@@ -3741,7 +3883,7 @@
     </row>
     <row r="86" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f>B87+1</f>
         <v>41</v>
       </c>
       <c r="C86" t="str">
@@ -3782,7 +3924,7 @@
     </row>
     <row r="87" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f>B88+1</f>
         <v>40</v>
       </c>
       <c r="C87" t="str">
@@ -3823,7 +3965,7 @@
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f>B89+1</f>
         <v>39</v>
       </c>
       <c r="C88" t="str">
@@ -3864,7 +4006,7 @@
     </row>
     <row r="89" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f>B90+1</f>
         <v>38</v>
       </c>
       <c r="C89" t="str">
@@ -3905,7 +4047,7 @@
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f>B91+1</f>
         <v>37</v>
       </c>
       <c r="C90" t="str">
@@ -3946,7 +4088,7 @@
     </row>
     <row r="91" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f>B92+1</f>
         <v>36</v>
       </c>
       <c r="C91" t="str">
@@ -3987,7 +4129,7 @@
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f>B93+1</f>
         <v>35</v>
       </c>
       <c r="C92" t="str">
@@ -4028,7 +4170,7 @@
     </row>
     <row r="93" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f>B94+1</f>
         <v>34</v>
       </c>
       <c r="C93" t="str">
@@ -4069,7 +4211,7 @@
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f>B95+1</f>
         <v>33</v>
       </c>
       <c r="C94" t="str">
@@ -4111,7 +4253,7 @@
     </row>
     <row r="95" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f>B96+1</f>
         <v>32</v>
       </c>
       <c r="C95" t="str">
@@ -4153,7 +4295,7 @@
     </row>
     <row r="96" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f>B97+1</f>
         <v>31</v>
       </c>
       <c r="C96" t="str">
@@ -4195,7 +4337,7 @@
     </row>
     <row r="97" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f>B98+1</f>
         <v>30</v>
       </c>
       <c r="C97" t="str">
@@ -4237,7 +4379,7 @@
     </row>
     <row r="98" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f>B99+1</f>
         <v>29</v>
       </c>
       <c r="C98" t="str">
@@ -4279,7 +4421,7 @@
     </row>
     <row r="99" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f>B100+1</f>
         <v>28</v>
       </c>
       <c r="C99" t="str">
@@ -4320,7 +4462,7 @@
     </row>
     <row r="100" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f>B101+1</f>
         <v>27</v>
       </c>
       <c r="C100" t="str">
@@ -4361,7 +4503,7 @@
     </row>
     <row r="101" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f>B102+1</f>
         <v>26</v>
       </c>
       <c r="C101" t="str">
@@ -4402,7 +4544,7 @@
     </row>
     <row r="102" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f>B103+1</f>
         <v>25</v>
       </c>
       <c r="C102" t="str">
@@ -4443,7 +4585,7 @@
     </row>
     <row r="103" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f>B104+1</f>
         <v>24</v>
       </c>
       <c r="C103" t="str">
@@ -4484,7 +4626,7 @@
     </row>
     <row r="104" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f>B105+1</f>
         <v>23</v>
       </c>
       <c r="C104" t="str">
@@ -4525,7 +4667,7 @@
     </row>
     <row r="105" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f>B106+1</f>
         <v>22</v>
       </c>
       <c r="C105" t="str">
@@ -4566,7 +4708,7 @@
     </row>
     <row r="106" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f>B107+1</f>
         <v>21</v>
       </c>
       <c r="C106" t="str">
@@ -4607,7 +4749,7 @@
     </row>
     <row r="107" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f>B108+1</f>
         <v>20</v>
       </c>
       <c r="C107" t="str">
@@ -4648,7 +4790,7 @@
     </row>
     <row r="108" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f>B109+1</f>
         <v>19</v>
       </c>
       <c r="C108" t="str">
@@ -4689,7 +4831,7 @@
     </row>
     <row r="109" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f>B110+1</f>
         <v>18</v>
       </c>
       <c r="C109" t="str">
@@ -4730,7 +4872,7 @@
     </row>
     <row r="110" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f>B111+1</f>
         <v>17</v>
       </c>
       <c r="C110" t="str">
@@ -4772,7 +4914,7 @@
     </row>
     <row r="111" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f>B112+1</f>
         <v>16</v>
       </c>
       <c r="C111" t="str">
@@ -4814,7 +4956,7 @@
     </row>
     <row r="112" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f>B113+1</f>
         <v>15</v>
       </c>
       <c r="C112" t="str">
@@ -4856,7 +4998,7 @@
     </row>
     <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f>B114+1</f>
         <v>14</v>
       </c>
       <c r="C113" t="str">
@@ -4898,7 +5040,7 @@
     </row>
     <row r="114" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f>B115+1</f>
         <v>13</v>
       </c>
       <c r="C114" t="str">
@@ -4940,7 +5082,7 @@
     </row>
     <row r="115" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f>B116+1</f>
         <v>12</v>
       </c>
       <c r="C115" t="str">
@@ -4981,7 +5123,7 @@
     </row>
     <row r="116" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f>B117+1</f>
         <v>11</v>
       </c>
       <c r="C116" t="str">
@@ -5022,7 +5164,7 @@
     </row>
     <row r="117" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f>B118+1</f>
         <v>10</v>
       </c>
       <c r="C117" t="str">
@@ -5063,7 +5205,7 @@
     </row>
     <row r="118" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f>B119+1</f>
         <v>9</v>
       </c>
       <c r="C118" t="str">
@@ -5104,7 +5246,7 @@
     </row>
     <row r="119" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f>B120+1</f>
         <v>8</v>
       </c>
       <c r="C119" t="str">
@@ -5145,7 +5287,7 @@
     </row>
     <row r="120" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f>B121+1</f>
         <v>7</v>
       </c>
       <c r="C120" t="str">
@@ -5186,7 +5328,7 @@
     </row>
     <row r="121" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f>B122+1</f>
         <v>6</v>
       </c>
       <c r="C121" t="str">
@@ -5227,7 +5369,7 @@
     </row>
     <row r="122" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f>B123+1</f>
         <v>5</v>
       </c>
       <c r="C122" t="str">
@@ -5301,7 +5443,7 @@
     </row>
     <row r="123" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f>B124+1</f>
         <v>4</v>
       </c>
       <c r="C123" t="str">
@@ -5407,7 +5549,7 @@
     </row>
     <row r="124" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f>B125+1</f>
         <v>3</v>
       </c>
       <c r="C124" t="str">
@@ -5513,7 +5655,7 @@
     </row>
     <row r="125" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f>B126+1</f>
         <v>2</v>
       </c>
       <c r="C125" t="str">
@@ -5891,10 +6033,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L169"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12487,12 +12641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12502,9 +12656,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B110*16)</f>
         <v>368,272</v>
       </c>
-      <c r="C1" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B110*16)</f>
-        <v>384,272</v>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
@@ -12512,9 +12665,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B111*16)</f>
         <v>368,256</v>
       </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B111*16)</f>
-        <v>384,256</v>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -12522,9 +12674,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B112*16)</f>
         <v>368,240</v>
       </c>
-      <c r="C3" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B112*16)</f>
-        <v>384,240</v>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -12532,9 +12683,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B113*16)</f>
         <v>368,224</v>
       </c>
-      <c r="C4" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B113*16)</f>
-        <v>384,224</v>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -12542,9 +12692,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B114*16)</f>
         <v>368,208</v>
       </c>
-      <c r="C5" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B114*16)</f>
-        <v>384,208</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -12552,9 +12701,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B115*16)</f>
         <v>368,192</v>
       </c>
-      <c r="C6" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B115*16)</f>
-        <v>384,192</v>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -12562,9 +12710,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B116*16)</f>
         <v>368,176</v>
       </c>
-      <c r="C7" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B116*16)</f>
-        <v>384,176</v>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -12572,9 +12719,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B78*16)</f>
         <v>368,784</v>
       </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B78*16)</f>
-        <v>384,784</v>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -12582,9 +12728,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B79*16)</f>
         <v>368,768</v>
       </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B79*16)</f>
-        <v>384,768</v>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -12592,9 +12737,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B80*16)</f>
         <v>368,752</v>
       </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B80*16)</f>
-        <v>384,752</v>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -12602,9 +12746,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B81*16)</f>
         <v>368,736</v>
       </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B81*16)</f>
-        <v>384,736</v>
+      <c r="C12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -12612,9 +12755,8 @@
         <f>_xlfn.CONCAT(lastmap!Z$1*16,",",lastmap!$B82*16)</f>
         <v>368,720</v>
       </c>
-      <c r="C13" t="str">
-        <f>_xlfn.CONCAT(lastmap!AA$1*16,",",lastmap!$B82*16)</f>
-        <v>384,720</v>
+      <c r="C13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -12622,9 +12764,8 @@
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B110*16)</f>
         <v>112,272</v>
       </c>
-      <c r="C15" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B110*16)</f>
-        <v>128,272</v>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
@@ -12632,104 +12773,283 @@
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B111*16)</f>
         <v>112,256</v>
       </c>
-      <c r="C16" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B111*16)</f>
-        <v>128,256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B112*16)</f>
         <v>112,240</v>
       </c>
-      <c r="C17" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B112*16)</f>
-        <v>128,240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B113*16)</f>
         <v>112,224</v>
       </c>
-      <c r="C18" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B113*16)</f>
-        <v>128,224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B114*16)</f>
         <v>112,208</v>
       </c>
-      <c r="C19" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B114*16)</f>
-        <v>128,208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B115*16)</f>
         <v>112,192</v>
       </c>
-      <c r="C20" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B115*16)</f>
-        <v>128,192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f>_xlfn.CONCAT(lastmap!J$1*16,",",lastmap!$B116*16)</f>
         <v>112,176</v>
       </c>
-      <c r="C21" t="str">
-        <f>_xlfn.CONCAT(lastmap!K$1*16,",",lastmap!$B116*16)</f>
-        <v>128,176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B23" t="str">
         <f ca="1">_xlfn.CONCAT(B$1*16,",",$B23*16)</f>
         <v>96,1952</v>
       </c>
-      <c r="C23" t="str">
-        <f ca="1">_xlfn.CONCAT(C$1*16,",",$B23*16)</f>
-        <v>112,1952</v>
-      </c>
-      <c r="D23" t="str">
-        <f ca="1">_xlfn.CONCAT(D$1*16,",",$B23*16)</f>
-        <v>128,1952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f ca="1">_xlfn.CONCAT(B$1*16,",",$B24*16)</f>
         <v>96,1936</v>
       </c>
-      <c r="C24" t="str">
-        <f ca="1">_xlfn.CONCAT(C$1*16,",",$B24*16)</f>
-        <v>112,1936</v>
-      </c>
-      <c r="D24" t="str">
-        <f ca="1">_xlfn.CONCAT(D$1*16,",",$B24*16)</f>
-        <v>128,1936</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f ca="1">_xlfn.CONCAT(B$1*16,",",$B25*16)</f>
         <v>96,1920</v>
       </c>
-      <c r="C25" t="str">
-        <f ca="1">_xlfn.CONCAT(C$1*16,",",$B25*16)</f>
-        <v>112,1920</v>
-      </c>
-      <c r="D25" t="str">
-        <f ca="1">_xlfn.CONCAT(D$1*16,",",$B25*16)</f>
-        <v>128,1920</v>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
